--- a/isitword test/ref/wordorderen_full.xlsx
+++ b/isitword test/ref/wordorderen_full.xlsx
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kiwi</t>
+          <t>eraser</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>word/worden0301.png</t>
+          <t>word/worden0661.png</t>
         </is>
       </c>
     </row>
@@ -486,19 +486,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>accpoke</t>
+          <t>cat</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>word/worden0872.png</t>
+          <t>word/worden0031.png</t>
         </is>
       </c>
     </row>
@@ -507,19 +507,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>peacock</t>
+          <t>kiooce</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>word/worden0871.png</t>
+          <t>word/worden0712.png</t>
         </is>
       </c>
     </row>
@@ -531,16 +531,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>podlana</t>
+          <t>coot</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>word/worden0883.png</t>
+          <t>word/worden0273.png</t>
         </is>
       </c>
     </row>
@@ -552,16 +552,16 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>czalka</t>
+          <t>podlana</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>word/worden0713.png</t>
+          <t>word/worden0883.png</t>
         </is>
       </c>
     </row>
@@ -570,19 +570,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>genitke</t>
+          <t>gift</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>word/worden0963.png</t>
+          <t>word/worden0281.png</t>
         </is>
       </c>
     </row>
@@ -594,16 +594,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>glasses</t>
+          <t>daisy</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>word/worden0821.png</t>
+          <t>word/worden0501.png</t>
         </is>
       </c>
     </row>
@@ -612,19 +612,19 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>eesrar</t>
+          <t>drill</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>word/worden0662.png</t>
+          <t>word/worden0411.png</t>
         </is>
       </c>
     </row>
@@ -636,16 +636,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>utodn</t>
+          <t>gerep</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>word/worden0462.png</t>
+          <t>word/worden0522.png</t>
         </is>
       </c>
     </row>
@@ -654,19 +654,19 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>teurlvu</t>
+          <t>pao</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>word/worden0932.png</t>
+          <t>word/worden0063.png</t>
         </is>
       </c>
     </row>
@@ -675,19 +675,19 @@
         <v>2</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>eraser</t>
+          <t>dorat</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>word/worden0661.png</t>
+          <t>word/worden0463.png</t>
         </is>
       </c>
     </row>
@@ -696,19 +696,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vandere</t>
+          <t>otab</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>word/worden0933.png</t>
+          <t>word/worden0302.png</t>
         </is>
       </c>
     </row>
@@ -717,19 +717,19 @@
         <v>2</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ardana</t>
+          <t>utodn</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>word/worden0643.png</t>
+          <t>word/worden0462.png</t>
         </is>
       </c>
     </row>
@@ -738,19 +738,19 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>speaker</t>
+          <t>gpones</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>word/worden0941.png</t>
+          <t>word/worden0702.png</t>
         </is>
       </c>
     </row>
@@ -759,19 +759,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vore</t>
+          <t>sponge</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>word/worden0263.png</t>
+          <t>word/worden0701.png</t>
         </is>
       </c>
     </row>
@@ -780,19 +780,19 @@
         <v>2</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>syspem</t>
+          <t>saw</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>word/worden0703.png</t>
+          <t>word/worden0081.png</t>
         </is>
       </c>
     </row>
@@ -804,16 +804,16 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>bcat</t>
+          <t>strufa</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>word/worden0223.png</t>
+          <t>word/worden0613.png</t>
         </is>
       </c>
     </row>
@@ -822,19 +822,19 @@
         <v>2</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>hcocu</t>
+          <t>bok</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>word/worden0512.png</t>
+          <t>word/worden0103.png</t>
         </is>
       </c>
     </row>
@@ -846,16 +846,16 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>knan</t>
+          <t>sfepto</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>word/worden0303.png</t>
+          <t>word/worden0753.png</t>
         </is>
       </c>
     </row>
@@ -867,16 +867,16 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>kiooce</t>
+          <t>ipllwo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>word/worden0712.png</t>
+          <t>word/worden0632.png</t>
         </is>
       </c>
     </row>
@@ -885,19 +885,19 @@
         <v>2</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ipsmrh</t>
+          <t>juq</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>word/worden0682.png</t>
+          <t>word/worden0113.png</t>
         </is>
       </c>
     </row>
@@ -906,19 +906,19 @@
         <v>2</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>gorilla</t>
+          <t>celiycb</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>word/worden0961.png</t>
+          <t>word/worden0892.png</t>
         </is>
       </c>
     </row>
@@ -927,19 +927,19 @@
         <v>2</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>caen</t>
+          <t>bow</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>word/worden0242.png</t>
+          <t>word/worden0091.png</t>
         </is>
       </c>
     </row>
@@ -948,19 +948,19 @@
         <v>2</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>sealsgs</t>
+          <t>golk</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>word/worden0822.png</t>
+          <t>word/worden0283.png</t>
         </is>
       </c>
     </row>
@@ -972,16 +972,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>sprouts</t>
+          <t>glasses</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>word/worden0891.png</t>
+          <t>word/worden0821.png</t>
         </is>
       </c>
     </row>
@@ -990,19 +990,19 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>drill</t>
+          <t>fgit</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>word/worden0411.png</t>
+          <t>word/worden0282.png</t>
         </is>
       </c>
     </row>
@@ -1011,19 +1011,19 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>boik</t>
+          <t>pear</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>word/worden0313.png</t>
+          <t>word/worden0231.png</t>
         </is>
       </c>
     </row>
@@ -1032,19 +1032,19 @@
         <v>2</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>bur</t>
+          <t>rcbik</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>word/worden0093.png</t>
+          <t>word/worden0422.png</t>
         </is>
       </c>
     </row>
@@ -1056,16 +1056,16 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ermpfeu</t>
+          <t>pihdnlo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>word/worden0882.png</t>
+          <t>word/worden0932.png</t>
         </is>
       </c>
     </row>
@@ -1077,16 +1077,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>pillow</t>
+          <t>perfume</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>word/worden0631.png</t>
+          <t>word/worden0881.png</t>
         </is>
       </c>
     </row>
@@ -1095,19 +1095,19 @@
         <v>2</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>jug</t>
+          <t>boik</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>word/worden0111.png</t>
+          <t>word/worden0313.png</t>
         </is>
       </c>
     </row>
@@ -1119,16 +1119,16 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>gpones</t>
+          <t>altspe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>word/worden0702.png</t>
+          <t>word/worden0752.png</t>
         </is>
       </c>
     </row>
@@ -1137,19 +1137,19 @@
         <v>2</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>soil</t>
+          <t>omlne</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>word/worden0271.png</t>
+          <t>word/worden0482.png</t>
         </is>
       </c>
     </row>
@@ -1158,19 +1158,19 @@
         <v>2</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rlldi</t>
+          <t>vase</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>word/worden0412.png</t>
+          <t>word/worden0261.png</t>
         </is>
       </c>
     </row>
@@ -1179,19 +1179,19 @@
         <v>2</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>bat</t>
+          <t>rlldi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>word/worden0101.png</t>
+          <t>word/worden0412.png</t>
         </is>
       </c>
     </row>
@@ -1203,16 +1203,16 @@
         <v>3</v>
       </c>
       <c r="C37" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>denog</t>
+          <t>eczera</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>word/worden0503.png</t>
+          <t>word/worden0663.png</t>
         </is>
       </c>
     </row>
@@ -1221,19 +1221,19 @@
         <v>2</v>
       </c>
       <c r="B38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>lenam</t>
+          <t>pen</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>word/worden0483.png</t>
+          <t>word/worden0061.png</t>
         </is>
       </c>
     </row>
@@ -1245,16 +1245,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>bow</t>
+          <t>brick</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>word/worden0091.png</t>
+          <t>word/worden0421.png</t>
         </is>
       </c>
     </row>
@@ -1263,19 +1263,19 @@
         <v>2</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>couch</t>
+          <t>druto</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>word/worden0511.png</t>
+          <t>word/worden0413.png</t>
         </is>
       </c>
     </row>
@@ -1287,16 +1287,16 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>swa</t>
+          <t>eapr</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>word/worden0082.png</t>
+          <t>word/worden0232.png</t>
         </is>
       </c>
     </row>
@@ -1305,19 +1305,19 @@
         <v>2</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>raccoon</t>
+          <t>genitke</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>word/worden0951.png</t>
+          <t>word/worden0963.png</t>
         </is>
       </c>
     </row>
@@ -1329,16 +1329,16 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>belt</t>
+          <t>statue</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>word/worden0311.png</t>
+          <t>word/worden0611.png</t>
         </is>
       </c>
     </row>
@@ -1347,19 +1347,19 @@
         <v>2</v>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>eapr</t>
+          <t>bur</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>word/worden0232.png</t>
+          <t>word/worden0093.png</t>
         </is>
       </c>
     </row>
@@ -1368,19 +1368,19 @@
         <v>2</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>saw</t>
+          <t>pilder</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>word/worden0081.png</t>
+          <t>word/worden0633.png</t>
         </is>
       </c>
     </row>
@@ -1389,19 +1389,19 @@
         <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C46" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>aht</t>
+          <t>denog</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>word/worden0072.png</t>
+          <t>word/worden0503.png</t>
         </is>
       </c>
     </row>
@@ -1410,19 +1410,19 @@
         <v>2</v>
       </c>
       <c r="B47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>biwol</t>
+          <t>cbmo</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>word/worden0423.png</t>
+          <t>word/worden0272.png</t>
         </is>
       </c>
     </row>
@@ -1431,19 +1431,19 @@
         <v>2</v>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>pilder</t>
+          <t>saetut</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>word/worden0633.png</t>
+          <t>word/worden0612.png</t>
         </is>
       </c>
     </row>
@@ -1452,19 +1452,19 @@
         <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>lemon</t>
+          <t>het</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>word/worden0481.png</t>
+          <t>word/worden0073.png</t>
         </is>
       </c>
     </row>
@@ -1473,19 +1473,19 @@
         <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>cookie</t>
+          <t>pewo</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>word/worden0711.png</t>
+          <t>word/worden0233.png</t>
         </is>
       </c>
     </row>
@@ -1497,16 +1497,16 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>staple</t>
+          <t>raccoon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>word/worden0751.png</t>
+          <t>word/worden0951.png</t>
         </is>
       </c>
     </row>
@@ -1515,19 +1515,19 @@
         <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>epn</t>
+          <t>biwol</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>word/worden0062.png</t>
+          <t>word/worden0423.png</t>
         </is>
       </c>
     </row>
@@ -1539,16 +1539,16 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>perfume</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>word/worden0881.png</t>
+          <t>word/worden0301.png</t>
         </is>
       </c>
     </row>
@@ -1557,19 +1557,19 @@
         <v>2</v>
       </c>
       <c r="B54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rcbik</t>
+          <t>posocyt</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>word/worden0422.png</t>
+          <t>word/worden0873.png</t>
         </is>
       </c>
     </row>
@@ -1581,16 +1581,16 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>fgit</t>
+          <t>epn</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>word/worden0282.png</t>
+          <t>word/worden0062.png</t>
         </is>
       </c>
     </row>
@@ -1602,16 +1602,16 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>accnoor</t>
+          <t>ipsmrh</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>word/worden0952.png</t>
+          <t>word/worden0682.png</t>
         </is>
       </c>
     </row>
@@ -1620,19 +1620,19 @@
         <v>2</v>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>bua</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>word/worden0011.png</t>
+          <t>word/worden0013.png</t>
         </is>
       </c>
     </row>
@@ -1644,16 +1644,16 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>altspe</t>
+          <t>frefaig</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>word/worden0752.png</t>
+          <t>word/worden0942.png</t>
         </is>
       </c>
     </row>
@@ -1665,16 +1665,16 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>cino</t>
+          <t>glianca</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>word/worden0243.png</t>
+          <t>word/worden0823.png</t>
         </is>
       </c>
     </row>
@@ -1683,19 +1683,19 @@
         <v>2</v>
       </c>
       <c r="B60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>jgu</t>
+          <t>bicycle</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>word/worden0112.png</t>
+          <t>word/worden0891.png</t>
         </is>
       </c>
     </row>
@@ -1704,19 +1704,19 @@
         <v>2</v>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ochrna</t>
+          <t>belt</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>word/worden0642.png</t>
+          <t>word/worden0311.png</t>
         </is>
       </c>
     </row>
@@ -1728,16 +1728,16 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>irallog</t>
+          <t>hcocu</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>word/worden0962.png</t>
+          <t>word/worden0512.png</t>
         </is>
       </c>
     </row>
@@ -1749,16 +1749,16 @@
         <v>3</v>
       </c>
       <c r="C63" t="n">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>rusarin</t>
+          <t>cowky</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>word/worden0953.png</t>
+          <t>word/worden0443.png</t>
         </is>
       </c>
     </row>
@@ -1767,19 +1767,19 @@
         <v>2</v>
       </c>
       <c r="B64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>sqeolae</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>word/worden0943.png</t>
+          <t>word/worden0011.png</t>
         </is>
       </c>
     </row>
@@ -1788,19 +1788,19 @@
         <v>2</v>
       </c>
       <c r="B65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>awlas</t>
+          <t>gorilla</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>word/worden0443.png</t>
+          <t>word/worden0961.png</t>
         </is>
       </c>
     </row>
@@ -1809,19 +1809,19 @@
         <v>2</v>
       </c>
       <c r="B66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>squratz</t>
+          <t>jug</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>word/worden0893.png</t>
+          <t>word/worden0111.png</t>
         </is>
       </c>
     </row>
@@ -1830,19 +1830,19 @@
         <v>2</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>shrimp</t>
+          <t>syspem</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>word/worden0681.png</t>
+          <t>word/worden0703.png</t>
         </is>
       </c>
     </row>
@@ -1851,19 +1851,19 @@
         <v>2</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>brick</t>
+          <t>czalka</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>word/worden0421.png</t>
+          <t>word/worden0713.png</t>
         </is>
       </c>
     </row>
@@ -1875,16 +1875,16 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>pen</t>
+          <t>shrimp</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>word/worden0061.png</t>
+          <t>word/worden0681.png</t>
         </is>
       </c>
     </row>
@@ -1896,16 +1896,16 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>dsiay</t>
+          <t>ermpfeu</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>word/worden0502.png</t>
+          <t>word/worden0882.png</t>
         </is>
       </c>
     </row>
@@ -1914,19 +1914,19 @@
         <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>sponge</t>
+          <t>dsiay</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>word/worden0701.png</t>
+          <t>word/worden0502.png</t>
         </is>
       </c>
     </row>
@@ -1935,19 +1935,19 @@
         <v>2</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72" t="n">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>gift</t>
+          <t>dulqine</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>word/worden0281.png</t>
+          <t>word/worden0933.png</t>
         </is>
       </c>
     </row>
@@ -1956,19 +1956,19 @@
         <v>2</v>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>strufa</t>
+          <t>pillow</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>word/worden0613.png</t>
+          <t>word/worden0631.png</t>
         </is>
       </c>
     </row>
@@ -1980,16 +1980,16 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>omlne</t>
+          <t>aht</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>word/worden0482.png</t>
+          <t>word/worden0072.png</t>
         </is>
       </c>
     </row>
@@ -2001,16 +2001,16 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>tleb</t>
+          <t>ochrna</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>word/worden0312.png</t>
+          <t>word/worden0642.png</t>
         </is>
       </c>
     </row>
@@ -2019,19 +2019,19 @@
         <v>2</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>utosspr</t>
+          <t>cane</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>word/worden0892.png</t>
+          <t>word/worden0241.png</t>
         </is>
       </c>
     </row>
@@ -2043,16 +2043,16 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>asve</t>
+          <t>sub</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>word/worden0262.png</t>
+          <t>word/worden0012.png</t>
         </is>
       </c>
     </row>
@@ -2064,16 +2064,16 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>donut</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>word/worden0221.png</t>
+          <t>word/worden0461.png</t>
         </is>
       </c>
     </row>
@@ -2082,19 +2082,19 @@
         <v>2</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>donut</t>
+          <t>gnyms</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>word/worden0461.png</t>
+          <t>word/worden0523.png</t>
         </is>
       </c>
     </row>
@@ -2103,19 +2103,19 @@
         <v>2</v>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>sus</t>
+          <t>tleb</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>word/worden0083.png</t>
+          <t>word/worden0312.png</t>
         </is>
       </c>
     </row>
@@ -2124,19 +2124,19 @@
         <v>2</v>
       </c>
       <c r="B81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>het</t>
+          <t>accnoor</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>word/worden0073.png</t>
+          <t>word/worden0952.png</t>
         </is>
       </c>
     </row>
@@ -2145,19 +2145,19 @@
         <v>2</v>
       </c>
       <c r="B82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>slaimy</t>
+          <t>dolphin</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>word/worden0683.png</t>
+          <t>word/worden0931.png</t>
         </is>
       </c>
     </row>
@@ -2169,16 +2169,16 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>daisy</t>
+          <t>cookie</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>word/worden0501.png</t>
+          <t>word/worden0711.png</t>
         </is>
       </c>
     </row>
@@ -2187,19 +2187,19 @@
         <v>2</v>
       </c>
       <c r="B84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>roraw</t>
+          <t>lemon</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>word/worden0522.png</t>
+          <t>word/worden0481.png</t>
         </is>
       </c>
     </row>
@@ -2208,19 +2208,19 @@
         <v>2</v>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ipllwo</t>
+          <t>giraffe</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>word/worden0632.png</t>
+          <t>word/worden0941.png</t>
         </is>
       </c>
     </row>
@@ -2229,19 +2229,19 @@
         <v>2</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C86" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>anchor</t>
+          <t>slaimy</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>word/worden0641.png</t>
+          <t>word/worden0683.png</t>
         </is>
       </c>
     </row>
@@ -2250,19 +2250,19 @@
         <v>2</v>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>dorat</t>
+          <t>eesrar</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>word/worden0463.png</t>
+          <t>word/worden0662.png</t>
         </is>
       </c>
     </row>
@@ -2271,19 +2271,19 @@
         <v>2</v>
       </c>
       <c r="B88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>amrbe</t>
+          <t>rusarin</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>word/worden0442.png</t>
+          <t>word/worden0953.png</t>
         </is>
       </c>
     </row>
@@ -2292,19 +2292,19 @@
         <v>2</v>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>pear</t>
+          <t>baul</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>word/worden0231.png</t>
+          <t>word/worden0303.png</t>
         </is>
       </c>
     </row>
@@ -2313,19 +2313,19 @@
         <v>2</v>
       </c>
       <c r="B90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C90" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>tba</t>
+          <t>bcat</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>word/worden0102.png</t>
+          <t>word/worden0223.png</t>
         </is>
       </c>
     </row>
@@ -2334,19 +2334,19 @@
         <v>2</v>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>eczera</t>
+          <t>staple</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>word/worden0663.png</t>
+          <t>word/worden0751.png</t>
         </is>
       </c>
     </row>
@@ -2355,19 +2355,19 @@
         <v>2</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ikiw</t>
+          <t>anchor</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>word/worden0302.png</t>
+          <t>word/worden0641.png</t>
         </is>
       </c>
     </row>
@@ -2376,19 +2376,19 @@
         <v>2</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>juq</t>
+          <t>comb</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>word/worden0113.png</t>
+          <t>word/worden0271.png</t>
         </is>
       </c>
     </row>
@@ -2397,19 +2397,19 @@
         <v>2</v>
       </c>
       <c r="B94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>caen</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>word/worden0033.png</t>
+          <t>word/worden0242.png</t>
         </is>
       </c>
     </row>
@@ -2418,19 +2418,19 @@
         <v>2</v>
       </c>
       <c r="B95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>bua</t>
+          <t>peacock</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>word/worden0013.png</t>
+          <t>word/worden0871.png</t>
         </is>
       </c>
     </row>
@@ -2439,19 +2439,19 @@
         <v>2</v>
       </c>
       <c r="B96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>pao</t>
+          <t>hat</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>word/worden0063.png</t>
+          <t>word/worden0071.png</t>
         </is>
       </c>
     </row>
@@ -2460,19 +2460,19 @@
         <v>2</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>pewo</t>
+          <t>bwo</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>word/worden0233.png</t>
+          <t>word/worden0092.png</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>amber</t>
+          <t>candy</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2502,19 +2502,19 @@
         <v>2</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>tba</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>word/worden0031.png</t>
+          <t>word/worden0102.png</t>
         </is>
       </c>
     </row>
@@ -2523,19 +2523,19 @@
         <v>2</v>
       </c>
       <c r="B100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C100" t="n">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>druto</t>
+          <t>sealsgs</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>word/worden0413.png</t>
+          <t>word/worden0822.png</t>
         </is>
       </c>
     </row>
@@ -2544,19 +2544,19 @@
         <v>2</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>sub</t>
+          <t>biageka</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>word/worden0012.png</t>
+          <t>word/worden0893.png</t>
         </is>
       </c>
     </row>
@@ -2568,16 +2568,16 @@
         <v>2</v>
       </c>
       <c r="C102" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>bwo</t>
+          <t>ncyad</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>word/worden0092.png</t>
+          <t>word/worden0442.png</t>
         </is>
       </c>
     </row>
@@ -2586,19 +2586,19 @@
         <v>2</v>
       </c>
       <c r="B103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>reapkes</t>
+          <t>grape</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>word/worden0942.png</t>
+          <t>word/worden0521.png</t>
         </is>
       </c>
     </row>
@@ -2610,16 +2610,16 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vulture</t>
+          <t>couch</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>word/worden0931.png</t>
+          <t>word/worden0511.png</t>
         </is>
       </c>
     </row>
@@ -2628,19 +2628,19 @@
         <v>2</v>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C105" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>okob</t>
+          <t>cowok</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>word/worden0222.png</t>
+          <t>word/worden0513.png</t>
         </is>
       </c>
     </row>
@@ -2649,19 +2649,19 @@
         <v>2</v>
       </c>
       <c r="B106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>scyl</t>
+          <t>swa</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>word/worden0273.png</t>
+          <t>word/worden0082.png</t>
         </is>
       </c>
     </row>
@@ -2670,19 +2670,19 @@
         <v>2</v>
       </c>
       <c r="B107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>glianca</t>
+          <t>atc</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>word/worden0823.png</t>
+          <t>word/worden0032.png</t>
         </is>
       </c>
     </row>
@@ -2691,19 +2691,19 @@
         <v>2</v>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>hat</t>
+          <t>ced</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>word/worden0071.png</t>
+          <t>word/worden0033.png</t>
         </is>
       </c>
     </row>
@@ -2712,19 +2712,19 @@
         <v>2</v>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>statue</t>
+          <t>ardana</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>word/worden0611.png</t>
+          <t>word/worden0643.png</t>
         </is>
       </c>
     </row>
@@ -2736,16 +2736,16 @@
         <v>3</v>
       </c>
       <c r="C110" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>bok</t>
+          <t>vore</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>word/worden0103.png</t>
+          <t>word/worden0263.png</t>
         </is>
       </c>
     </row>
@@ -2757,16 +2757,16 @@
         <v>2</v>
       </c>
       <c r="C111" t="n">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>sloi</t>
+          <t>irallog</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>word/worden0272.png</t>
+          <t>word/worden0962.png</t>
         </is>
       </c>
     </row>
@@ -2775,19 +2775,19 @@
         <v>2</v>
       </c>
       <c r="B112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>cowok</t>
+          <t>book</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>word/worden0513.png</t>
+          <t>word/worden0221.png</t>
         </is>
       </c>
     </row>
@@ -2799,16 +2799,16 @@
         <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>saetut</t>
+          <t>okob</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>word/worden0612.png</t>
+          <t>word/worden0222.png</t>
         </is>
       </c>
     </row>
@@ -2817,19 +2817,19 @@
         <v>2</v>
       </c>
       <c r="B114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>posocyt</t>
+          <t>asve</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>word/worden0873.png</t>
+          <t>word/worden0262.png</t>
         </is>
       </c>
     </row>
@@ -2838,19 +2838,19 @@
         <v>2</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>cane</t>
+          <t>lenam</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>word/worden0241.png</t>
+          <t>word/worden0483.png</t>
         </is>
       </c>
     </row>
@@ -2859,19 +2859,19 @@
         <v>2</v>
       </c>
       <c r="B116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C116" t="n">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>golk</t>
+          <t>accpoke</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>word/worden0283.png</t>
+          <t>word/worden0872.png</t>
         </is>
       </c>
     </row>
@@ -2883,16 +2883,16 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vase</t>
+          <t>bat</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>word/worden0261.png</t>
+          <t>word/worden0101.png</t>
         </is>
       </c>
     </row>
@@ -2904,16 +2904,16 @@
         <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>sfepto</t>
+          <t>sus</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>word/worden0753.png</t>
+          <t>word/worden0083.png</t>
         </is>
       </c>
     </row>
@@ -2922,19 +2922,19 @@
         <v>2</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>atc</t>
+          <t>giandto</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>word/worden0032.png</t>
+          <t>word/worden0943.png</t>
         </is>
       </c>
     </row>
@@ -2943,19 +2943,19 @@
         <v>2</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>arrow</t>
+          <t>jgu</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>word/worden0521.png</t>
+          <t>word/worden0112.png</t>
         </is>
       </c>
     </row>
@@ -2967,16 +2967,16 @@
         <v>3</v>
       </c>
       <c r="C121" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>aronu</t>
+          <t>cino</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>word/worden0523.png</t>
+          <t>word/worden0243.png</t>
         </is>
       </c>
     </row>
